--- a/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
+++ b/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
@@ -4,11 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DX_system_representation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="dx_system_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="performance_map_cooling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_standby" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,6 +88,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -101,44 +102,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -148,97 +216,97 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
-      <text>
-        <t>*Representation Specification* Data Group</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Model number for this chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Package manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Package model number</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Continuous unit power draw regardless of whether the fan or DX system are operating.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Position of the fan relative to the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A21" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Continuous unit power draw regardless of fan or DX system operation</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <t>Position of the fan relative to the cooling coil</t>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <t>The corresponding Standard 205 direct expansion coil system representation</t>
       </text>
@@ -253,117 +321,117 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
-      <text>
-        <t>*Representation Specification* Data Group</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B15" shapeId="0">
-      <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Model number of the outdoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Name of the indoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
-      <text>
-        <t>Model number of the indoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Refrigerant used in the chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
+      <text>
+        <t>Outdoor unit manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Outdoor unit model number</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Indoor unit manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Indoor unit model number</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Refrigerant used</t>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A21" shapeId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>Method used to control different speeds of the compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A25" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -378,57 +446,57 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for cooling performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the lookup variables for cooling performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air entering the outdoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Relative humidity of the air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Mass flow rate of air entering the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <t>Ambient absolute air pressure</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <t>Total heat removed by the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <t>Sensible heat removed by the indoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
       </text>
@@ -443,22 +511,22 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the lookup variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air in the environment of the outdoor coil</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
       </text>
@@ -764,58 +832,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -904,17 +972,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>PPR2</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -926,12 +990,12 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
+          <t>data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>ASHRAE_205</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -945,7 +1009,7 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -964,12 +1028,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Unitary System with Constant Efficiency</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -983,12 +1047,12 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+          <t>Unitary System with Constant Efficiency</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1002,12 +1066,12 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2019-09-13T00:00Z</t>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1021,11 +1085,13 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1</v>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2019-09-13T00:00Z</t>
+        </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="6" t="inlineStr">
@@ -1038,27 +1104,29 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Committee</t>
-        </is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Example data not to be used for simulation</t>
+          <t>Committee</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
@@ -1068,36 +1136,36 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>An example representation that applies a constant COP of 3.1</t>
+          <t>Example data not to be used for simulation</t>
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="5" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>An example representation that applies a constant COP of 3.1</t>
+        </is>
+      </c>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1108,7 +1176,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -1120,7 +1188,7 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -1129,17 +1197,13 @@
         </is>
       </c>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -1148,28 +1212,28 @@
         </is>
       </c>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="5" t="n"/>
       <c r="D18" s="4" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    standby_power</t>
+          <t>standby_power</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1180,13 +1244,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    fan_position</t>
+          <t>fan_position</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -1200,34 +1268,31 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation</t>
+          <t>performance.dx_system_representation</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>$DX_system_representation</t>
+          <t>$dx_system_representation</t>
         </is>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="6" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="2">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
+    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1246,64 +1311,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation</t>
+          <t>performance.dx_system_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1386,17 +1451,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        schema_version</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>performance.dx_system_representation.metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -1408,12 +1469,12 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        standard_version</t>
+          <t xml:space="preserve">        schema_version</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>PPR2</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -1427,12 +1488,12 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        RS_ID</t>
+          <t xml:space="preserve">        data_model</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>RS0004</t>
+          <t>ASHRAE_205</t>
         </is>
       </c>
       <c r="D5" s="4" t="n"/>
@@ -1446,12 +1507,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        description</t>
+          <t xml:space="preserve">        schema</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>DX System with Constant Efficiency</t>
+          <t>RS0004</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1465,12 +1526,12 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ID</t>
+          <t xml:space="preserve">        description</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>123e4567-e89b-12d3-a456-426614174000</t>
+          <t>DX System with Constant Efficiency</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1484,12 +1545,12 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_timestamp</t>
+          <t xml:space="preserve">        id</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2020-05-07T00:00Z</t>
+          <t>123e4567-e89b-12d3-a456-426614174000</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1503,11 +1564,13 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_version</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1</v>
+          <t xml:space="preserve">        data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2020-05-07T00:00Z</t>
+        </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="6" t="inlineStr">
@@ -1520,51 +1583,53 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        disclaimer</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Example data not to be used for simulation</t>
-        </is>
+          <t xml:space="preserve">        data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        notes</t>
+          <t xml:space="preserve">        disclaimer</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>An example representation that applies a constant COP of 3.1</t>
+          <t>Example data not to be used for simulation</t>
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="5" t="n"/>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>An example representation that applies a constant COP of 3.1</t>
+        </is>
+      </c>
       <c r="D12" s="4" t="n"/>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.description</t>
+          <t>performance.dx_system_representation.description</t>
         </is>
       </c>
       <c r="B13" s="4" t="n"/>
@@ -1575,7 +1640,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.description.product_information</t>
+          <t>performance.dx_system_representation.description.product_information</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1587,7 +1652,7 @@
       <c r="A15" s="4" t="n"/>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">            outdoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -1602,7 +1667,7 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    outdoor_unit_model_number</t>
+          <t xml:space="preserve">            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -1617,7 +1682,7 @@
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    indoor_unit_manufacturer</t>
+          <t xml:space="preserve">            indoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -1632,7 +1697,7 @@
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    indoor_unit_model_number</t>
+          <t xml:space="preserve">            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -1647,12 +1712,12 @@
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    refrigerant_type</t>
+          <t xml:space="preserve">            refrigerant</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>R410A</t>
+          <t>R-410A</t>
         </is>
       </c>
       <c r="D19" s="4" t="n"/>
@@ -1662,7 +1727,7 @@
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    compressor_type</t>
+          <t xml:space="preserve">            compressor_type</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -1676,34 +1741,42 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.performance</t>
+          <t>performance.dx_system_representation.performance</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="5" t="n"/>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_control_method</t>
+          <t xml:space="preserve">        compressor_speed_control_type</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>STAGED</t>
+          <t>DISCRETE</t>
         </is>
       </c>
       <c r="D22" s="4" t="n"/>
-      <c r="E22" s="6" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cycling_degradation_coefficient</t>
+          <t xml:space="preserve">        cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C23" s="5" t="n">
@@ -1723,7 +1796,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.performance.performance_map_cooling</t>
+          <t>performance.dx_system_representation.performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -1742,7 +1815,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.performance.performance_map_standby</t>
+          <t>performance.dx_system_representation.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
@@ -1759,25 +1832,22 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="3">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
+    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"STAGED,DYNAMIC"</formula1>
+    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1"/>
     <hyperlink ref="C25" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1796,64 +1866,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.performance.performance_map_cooling</t>
+          <t>performance.dx_system_representation.performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1960,17 +2030,17 @@
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>gross_total_cooling_capacity</t>
+          <t>gross_total_capacity</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>gross_sensible_cooling_capacity</t>
+          <t>gross_sensible_capacity</t>
         </is>
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>gross_cooling_power</t>
+          <t>gross_power</t>
         </is>
       </c>
     </row>
@@ -1995,7 +2065,11 @@
           <t>kg/s</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
           <t>Pa</t>
@@ -3874,7 +3948,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -3893,64 +3967,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.DX_system_representation.RS_instance.performance.performance_map_standby</t>
+          <t>performance.dx_system_representation.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4058,7 +4132,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
+++ b/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
+++ b/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
@@ -308,7 +308,7 @@
     </comment>
     <comment ref="A21" authorId="0" shapeId="0">
       <text>
-        <t>The corresponding Standard 205 direct expansion coil system representation</t>
+        <t>The corresponding Standard 205 direct expansion system representation</t>
       </text>
     </comment>
   </commentList>
@@ -423,7 +423,7 @@
     </comment>
     <comment ref="B23" authorId="0" shapeId="0">
       <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 210/240</t>
       </text>
     </comment>
     <comment ref="A24" authorId="0" shapeId="0">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
+++ b/assets/examples/xlsx/RS0002/Unitary-Constant-Efficiency.RS0002.a205.xlsx
@@ -499,6 +499,11 @@
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -1033,7 +1038,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1278,14 +1283,18 @@
         </is>
       </c>
       <c r="D21" s="4" t="n"/>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1474,7 +1483,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -1833,13 +1842,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1996,6 +2005,7 @@
       </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2043,6 +2053,11 @@
           <t>gross_power</t>
         </is>
       </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2090,6 +2105,11 @@
           <t>W</t>
         </is>
       </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
@@ -2119,6 +2139,11 @@
       <c r="I5" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2148,6 +2173,11 @@
       <c r="I6" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2177,6 +2207,11 @@
       <c r="I7" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2206,6 +2241,11 @@
       <c r="I8" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2235,6 +2275,11 @@
       <c r="I9" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -2264,6 +2309,11 @@
       <c r="I10" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -2293,6 +2343,11 @@
       <c r="I11" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -2322,6 +2377,11 @@
       <c r="I12" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -2351,6 +2411,11 @@
       <c r="I13" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -2380,6 +2445,11 @@
       <c r="I14" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -2409,6 +2479,11 @@
       <c r="I15" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -2438,6 +2513,11 @@
       <c r="I16" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -2467,6 +2547,11 @@
       <c r="I17" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -2496,6 +2581,11 @@
       <c r="I18" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -2525,6 +2615,11 @@
       <c r="I19" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -2554,6 +2649,11 @@
       <c r="I20" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -2583,6 +2683,11 @@
       <c r="I21" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -2612,6 +2717,11 @@
       <c r="I22" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -2641,6 +2751,11 @@
       <c r="I23" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -2670,6 +2785,11 @@
       <c r="I24" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -2699,6 +2819,11 @@
       <c r="I25" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -2728,6 +2853,11 @@
       <c r="I26" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -2757,6 +2887,11 @@
       <c r="I27" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -2786,6 +2921,11 @@
       <c r="I28" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -2815,6 +2955,11 @@
       <c r="I29" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -2844,6 +2989,11 @@
       <c r="I30" s="5" t="n">
         <v>13610.20516129032</v>
       </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -2873,6 +3023,11 @@
       <c r="I31" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -2902,6 +3057,11 @@
       <c r="I32" s="5" t="n">
         <v>18347.45806451613</v>
       </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -2931,6 +3091,11 @@
       <c r="I33" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -2960,6 +3125,11 @@
       <c r="I34" s="5" t="n">
         <v>20296.54806451613</v>
       </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -2989,6 +3159,11 @@
       <c r="I35" s="5" t="n">
         <v>33194.12967741935</v>
       </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -3017,6 +3192,11 @@
       </c>
       <c r="I36" s="5" t="n">
         <v>33194.12967741935</v>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3047,6 +3227,11 @@
       <c r="I37" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -3076,6 +3261,11 @@
       <c r="I38" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -3105,6 +3295,11 @@
       <c r="I39" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -3134,6 +3329,11 @@
       <c r="I40" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -3163,6 +3363,11 @@
       <c r="I41" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -3192,6 +3397,11 @@
       <c r="I42" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -3221,6 +3431,11 @@
       <c r="I43" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -3250,6 +3465,11 @@
       <c r="I44" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -3279,6 +3499,11 @@
       <c r="I45" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -3308,6 +3533,11 @@
       <c r="I46" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -3337,6 +3567,11 @@
       <c r="I47" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -3366,6 +3601,11 @@
       <c r="I48" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -3395,6 +3635,11 @@
       <c r="I49" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -3424,6 +3669,11 @@
       <c r="I50" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -3453,6 +3703,11 @@
       <c r="I51" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -3482,6 +3737,11 @@
       <c r="I52" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -3511,6 +3771,11 @@
       <c r="I53" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -3540,6 +3805,11 @@
       <c r="I54" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -3569,6 +3839,11 @@
       <c r="I55" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -3598,6 +3873,11 @@
       <c r="I56" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -3627,6 +3907,11 @@
       <c r="I57" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -3656,6 +3941,11 @@
       <c r="I58" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -3685,6 +3975,11 @@
       <c r="I59" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -3714,6 +4009,11 @@
       <c r="I60" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -3743,6 +4043,11 @@
       <c r="I61" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -3772,6 +4077,11 @@
       <c r="I62" s="5" t="n">
         <v>9838.82064516129</v>
       </c>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -3801,6 +4111,11 @@
       <c r="I63" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -3830,6 +4145,11 @@
       <c r="I64" s="5" t="n">
         <v>14206.4264516129</v>
       </c>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -3859,6 +4179,11 @@
       <c r="I65" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -3888,6 +4213,11 @@
       <c r="I66" s="5" t="n">
         <v>12700.29741935484</v>
       </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -3917,6 +4247,11 @@
       <c r="I67" s="5" t="n">
         <v>21496.0629032258</v>
       </c>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -3945,6 +4280,11 @@
       </c>
       <c r="I68" s="5" t="n">
         <v>21496.0629032258</v>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
